--- a/data/document-templates/excel/001_IncomeStatement.xlsx
+++ b/data/document-templates/excel/001_IncomeStatement.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B7C05-DDFD-4050-AAE6-94FB0EA09B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7590"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projected Income Statement" sheetId="1" r:id="rId1"/>
     <sheet name="©" sheetId="2" r:id="rId2"/>
+    <sheet name="b" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">b!$B$1:$G$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Projected Income Statement'!$B$1:$G$37</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>© 2018 TemplateLab.com</t>
   </si>
@@ -113,12 +125,15 @@
   </si>
   <si>
     <t>Other sales revenue</t>
+  </si>
+  <si>
+    <t>GPM%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -387,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -399,26 +414,14 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,7 +429,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,6 +450,25 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,47 +813,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G37"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="7" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="40"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="2:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="8">
         <v>2018</v>
@@ -853,7 +875,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -863,64 +885,64 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="13">
         <v>100000</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>110000</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <v>120000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="13">
         <v>125000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>130000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <v>500</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="34">
         <f>SUM(C7:C8)</f>
         <v>100500</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="34">
         <f>SUM(D7:D8)</f>
         <v>110000</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="34">
         <f>SUM(E7:E8)</f>
         <v>120000</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="34">
         <f>SUM(F7:F8)</f>
         <v>125000</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="34">
         <f>SUM(G7:G8)</f>
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -928,77 +950,77 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>29700</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>30000</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>40000</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>42000</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>43000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <f>C9-C11</f>
         <v>70800</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <f t="shared" ref="D12:G12" si="1">D9-D11</f>
         <v>80000</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>83000</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="15">
         <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="32">
         <f>IFERROR(C12/C9,"-")</f>
         <v>0.70447761194029845</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="32">
         <f t="shared" ref="D13:G13" si="2">IFERROR(D12/D9,"-")</f>
         <v>0.72727272727272729</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <f t="shared" si="2"/>
         <v>0.66400000000000003</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <f t="shared" si="2"/>
         <v>0.66923076923076918</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1006,7 +1028,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1016,234 +1038,234 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>6000</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>1000</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>1100</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <v>1200</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>1300</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>5000</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <v>1000</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="14">
         <v>1100</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="14">
         <v>1200</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="14">
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>3300</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="16">
         <v>1000</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>1100</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>1200</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="16">
         <v>1300</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>2000</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="14">
         <v>1000</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="14">
         <v>1100</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="14">
         <v>1200</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="14">
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>3200</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>1000</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>1100</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>1200</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="16">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="14">
         <v>3000</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="14">
         <v>1000</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="14">
         <v>1100</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="14">
         <v>1200</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="14">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="14">
         <v>200</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <v>100</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="14">
         <v>50</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="14">
         <v>100</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>500</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="36">
         <f>SUM(C16:C28)</f>
         <v>23200</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="36">
         <f>SUM(D16:D28)</f>
         <v>6100</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="36">
         <f>SUM(E16:E28)</f>
         <v>6650</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="36">
         <f>SUM(F16:F28)</f>
         <v>7300</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="36">
         <f>SUM(G16:G28)</f>
         <v>7900</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1251,57 +1273,57 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="20">
         <f>C12-C29</f>
         <v>47600</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="20">
         <f>D12-D29</f>
         <v>73900</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <f>E12-E29</f>
         <v>73350</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="20">
         <f>F12-F29</f>
         <v>75700</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="20">
         <f>G12-G29</f>
         <v>79100</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="30">
         <f>IFERROR(C31/C9,"-")</f>
         <v>0.47363184079601989</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="30">
         <f>IFERROR(D31/D9,"-")</f>
         <v>0.67181818181818187</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="30">
         <f>IFERROR(E31/E9,"-")</f>
         <v>0.61124999999999996</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="30">
         <f>IFERROR(F31/F9,"-")</f>
         <v>0.60560000000000003</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="30">
         <f>IFERROR(G31/G9,"-")</f>
         <v>0.6084615384615385</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1309,27 +1331,27 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="26">
         <v>100</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="26">
         <v>150</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="26">
         <v>200</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="26">
         <v>200</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="26">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1337,60 +1359,69 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="28">
         <f>C31-C34</f>
         <v>47500</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="28">
         <f t="shared" ref="D36:G36" si="3">D31-D34</f>
         <v>73750</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="28">
         <f t="shared" si="3"/>
         <v>73150</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="28">
         <f t="shared" si="3"/>
         <v>75500</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="28">
         <f t="shared" si="3"/>
         <v>78900</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="33" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="31">
         <f>IFERROR(C36/C9,"-")</f>
         <v>0.47263681592039802</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="31">
         <f>IFERROR(D36/D9,"-")</f>
         <v>0.67045454545454541</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <f>IFERROR(E36/E9,"-")</f>
         <v>0.60958333333333337</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="31">
         <f>IFERROR(F36/F9,"-")</f>
         <v>0.60399999999999998</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="31">
         <f>IFERROR(G36/G9,"-")</f>
         <v>0.6069230769230769</v>
       </c>
     </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H38:I39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,28 +1430,653 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEEE2A5-18E8-42DD-92BB-633F5B73A533}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="40"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="8">
+        <f>C5+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:G5" si="0">D5+1</f>
+        <v>2020</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
+        <v>29700</v>
+      </c>
+      <c r="D7" s="18">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>42000</v>
+      </c>
+      <c r="G7" s="18">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <f>C14-C7</f>
+        <v>70800</v>
+      </c>
+      <c r="D8" s="15">
+        <f>D14-D7</f>
+        <v>80000</v>
+      </c>
+      <c r="E8" s="15">
+        <f>E14-E7</f>
+        <v>80000</v>
+      </c>
+      <c r="F8" s="15">
+        <f>F14-F7</f>
+        <v>83000</v>
+      </c>
+      <c r="G8" s="15">
+        <f>G14-G7</f>
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="32">
+        <f>IFERROR(C8/C14,"-")</f>
+        <v>0.70447761194029845</v>
+      </c>
+      <c r="D9" s="32">
+        <f>IFERROR(D8/D14,"-")</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E9" s="32">
+        <f>IFERROR(E8/E14,"-")</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F9" s="32">
+        <f>IFERROR(F8/F14,"-")</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="G9" s="32">
+        <f>IFERROR(G8/G14,"-")</f>
+        <v>0.66923076923076918</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="13">
+        <v>110000</v>
+      </c>
+      <c r="E12" s="13">
+        <v>120000</v>
+      </c>
+      <c r="F12" s="13">
+        <v>125000</v>
+      </c>
+      <c r="G12" s="13">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14">
+        <v>500</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="34">
+        <f>SUM(C12:C13)</f>
+        <v>100500</v>
+      </c>
+      <c r="D14" s="34">
+        <f>SUM(D12:D13)</f>
+        <v>110000</v>
+      </c>
+      <c r="E14" s="34">
+        <f>SUM(E12:E13)</f>
+        <v>120000</v>
+      </c>
+      <c r="F14" s="34">
+        <f>SUM(F12:F13)</f>
+        <v>125000</v>
+      </c>
+      <c r="G14" s="34">
+        <f>SUM(G12:G13)</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="13">
+        <v>6000</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="14">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1200</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3300</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3200</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1200</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="14">
+        <v>200</v>
+      </c>
+      <c r="D24" s="14">
+        <v>100</v>
+      </c>
+      <c r="E24" s="14">
+        <v>50</v>
+      </c>
+      <c r="F24" s="14">
+        <v>100</v>
+      </c>
+      <c r="G24" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="16">
+        <v>500</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="36">
+        <f>SUM(C17:C29)</f>
+        <v>23200</v>
+      </c>
+      <c r="D30" s="36">
+        <f>SUM(D17:D29)</f>
+        <v>6100</v>
+      </c>
+      <c r="E30" s="36">
+        <f>SUM(E17:E29)</f>
+        <v>6650</v>
+      </c>
+      <c r="F30" s="36">
+        <f>SUM(F17:F29)</f>
+        <v>7300</v>
+      </c>
+      <c r="G30" s="36">
+        <f>SUM(G17:G29)</f>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="20">
+        <f>C8-C30</f>
+        <v>47600</v>
+      </c>
+      <c r="D32" s="20">
+        <f>D8-D30</f>
+        <v>73900</v>
+      </c>
+      <c r="E32" s="20">
+        <f>E8-E30</f>
+        <v>73350</v>
+      </c>
+      <c r="F32" s="20">
+        <f>F8-F30</f>
+        <v>75700</v>
+      </c>
+      <c r="G32" s="20">
+        <f>G8-G30</f>
+        <v>79100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="30">
+        <f>IFERROR(C32/C14,"-")</f>
+        <v>0.47363184079601989</v>
+      </c>
+      <c r="D33" s="30">
+        <f>IFERROR(D32/D14,"-")</f>
+        <v>0.67181818181818187</v>
+      </c>
+      <c r="E33" s="30">
+        <f>IFERROR(E32/E14,"-")</f>
+        <v>0.61124999999999996</v>
+      </c>
+      <c r="F33" s="30">
+        <f>IFERROR(F32/F14,"-")</f>
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="G33" s="30">
+        <f>IFERROR(G32/G14,"-")</f>
+        <v>0.6084615384615385</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="26">
+        <v>100</v>
+      </c>
+      <c r="D35" s="26">
+        <v>150</v>
+      </c>
+      <c r="E35" s="26">
+        <v>200</v>
+      </c>
+      <c r="F35" s="26">
+        <v>200</v>
+      </c>
+      <c r="G35" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="28">
+        <f>C32-C35</f>
+        <v>47500</v>
+      </c>
+      <c r="D37" s="28">
+        <f t="shared" ref="D37:G37" si="1">D32-D35</f>
+        <v>73750</v>
+      </c>
+      <c r="E37" s="28">
+        <f t="shared" si="1"/>
+        <v>73150</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" si="1"/>
+        <v>75500</v>
+      </c>
+      <c r="G37" s="28">
+        <f t="shared" si="1"/>
+        <v>78900</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="31">
+        <f>IFERROR(C37/C14,"-")</f>
+        <v>0.47263681592039802</v>
+      </c>
+      <c r="D38" s="31">
+        <f>IFERROR(D37/D14,"-")</f>
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="E38" s="31">
+        <f>IFERROR(E37/E14,"-")</f>
+        <v>0.60958333333333337</v>
+      </c>
+      <c r="F38" s="31">
+        <f>IFERROR(F37/F14,"-")</f>
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G38" s="31">
+        <f>IFERROR(G37/G14,"-")</f>
+        <v>0.6069230769230769</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="H39:I40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/document-templates/excel/001_IncomeStatement.xlsx
+++ b/data/document-templates/excel/001_IncomeStatement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B7C05-DDFD-4050-AAE6-94FB0EA09B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482FA0FF-69BD-43B3-A238-0A2BF0BFD7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projected Income Statement" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>© 2018 TemplateLab.com</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>GPM%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -817,11 +820,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -829,31 +830,34 @@
     <col min="3" max="7" width="13.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="40"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="2:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="8">
         <v>2018</v>
@@ -875,7 +879,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -885,7 +889,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
@@ -905,7 +909,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
@@ -917,7 +921,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
@@ -942,7 +946,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -950,7 +954,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
@@ -970,7 +974,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
@@ -995,7 +999,7 @@
         <v>87000</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>0.66923076923076918</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1028,7 +1032,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1042,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>0.6084615384615385</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1331,7 +1335,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="25" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1359,7 +1363,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>78900</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29" t="s">
         <v>25</v>
       </c>
@@ -1409,19 +1413,10 @@
         <v>0.6069230769230769</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H38:I39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,8 +1458,8 @@
   </sheetPr>
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
